--- a/hourly_retail_whole_prices.xlsx
+++ b/hourly_retail_whole_prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\待修改论文\IEEETEMPR-TII-EB加密聚类\ACLA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056BEA57-308F-4387-A059-8258F6D55AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0FCAF0-7C41-4DE4-9A52-D692483F16E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,10 +617,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -942,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2298,198 +2298,6 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="B169" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
-        <v>14</v>
-      </c>
-      <c r="B170" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
-        <v>11.95</v>
-      </c>
-      <c r="B171" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="B172" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
-        <v>13.02</v>
-      </c>
-      <c r="B173" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
-        <v>15.77</v>
-      </c>
-      <c r="B174" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
-        <v>16.329999999999998</v>
-      </c>
-      <c r="B175" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
-        <v>17</v>
-      </c>
-      <c r="B176" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
-        <v>18.45</v>
-      </c>
-      <c r="B177" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="2">
-        <v>18.54</v>
-      </c>
-      <c r="B178" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="2">
-        <v>20.51</v>
-      </c>
-      <c r="B179" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="2">
-        <v>20.77</v>
-      </c>
-      <c r="B180" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="2">
-        <v>22.26</v>
-      </c>
-      <c r="B181" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="2">
-        <v>23.97</v>
-      </c>
-      <c r="B182" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="2">
-        <v>29.24</v>
-      </c>
-      <c r="B183" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="2">
-        <v>34.19</v>
-      </c>
-      <c r="B184" s="2">
-        <v>66.05</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="2">
-        <v>29.53</v>
-      </c>
-      <c r="B185" s="2">
-        <v>66.05</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="2">
-        <v>22.74</v>
-      </c>
-      <c r="B186" s="2">
-        <v>66.05</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="2">
-        <v>22.02</v>
-      </c>
-      <c r="B187" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="2">
-        <v>21.41</v>
-      </c>
-      <c r="B188" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="2">
-        <v>19.850000000000001</v>
-      </c>
-      <c r="B189" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="2">
-        <v>18.78</v>
-      </c>
-      <c r="B190" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="2">
-        <v>17.86</v>
-      </c>
-      <c r="B191" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="2">
-        <v>14.07</v>
-      </c>
-      <c r="B192" s="2">
-        <v>30.25</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
